--- a/results/simple_ML_models.xlsx
+++ b/results/simple_ML_models.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="models" sheetId="1" r:id="rId1"/>
     <sheet name="PCA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
   <si>
     <t>MLP</t>
     <phoneticPr fontId="1"/>
@@ -491,11 +491,107 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VR-rbf-epsilon0.2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arameters</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-time100 -batch100 -hidden30 -epoch100 -test0.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STM</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-time100 -batch100 -hidden30 -epoch200 -test0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-time100 -batch100 -hidden30 -epoch200 -test0.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SVR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>huffled</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MLP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-hidden30 -alpha10 shuffled</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +713,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,582 +1033,996 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="48.69921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>0.61263786593400005</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.445589584225</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0.74241836695499996</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>4.1180348390800002E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>-0.46701448469000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>-0.65800768975900004</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>-1.43718308724</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.58360590999299999</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>-2.86154576717</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0.14024730258500001</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>-4.6947461537499997</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>0.16130316745199999</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.37144283230300001</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>-1.31523672637</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>0.85687897044799999</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>0.75030205597599997</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>0.72225791673499995</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>0.66284068920999994</v>
       </c>
-      <c r="T2" s="1">
-        <f>SUMIF(B2:S2, "&gt;0")</f>
+      <c r="U2" s="1">
+        <f>SUMIF(C2:T2, "&gt;0")</f>
         <v>6.0907050102068006</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.63906173756700002</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.47724472555399999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.75431733879100005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.40345361634299998</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.339367841221</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.22689000811599999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>-1.0426569451500001</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.57672626247600001</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>-1.20711193866</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0.351493395579</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>-1.2494520607699999</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0.40361313676600002</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0.47841599018999997</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>-1.00118125948</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>0.79484694991500005</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>0.68608531093500003</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>0.71016171112600002</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>0.62138879021100002</v>
       </c>
-      <c r="T3" s="1">
-        <f>SUMIF(B3:S3, "&gt;0")</f>
+      <c r="U3" s="1">
+        <f>SUMIF(C3:T3, "&gt;0")</f>
         <v>7.4630668147900003</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.65463268884900006</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.54796499660700004</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.81683450974100003</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.53788281788299996</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.311913469788</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.35765049485700001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>-0.99399638386099998</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.54456484424600005</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>-1.1352600317899999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0.36390730983800001</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>-1.51368915744</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>0.347985778154</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.55288092573000003</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>-0.78500646241100003</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>0.84879685314999997</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0.78896687328100001</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>0.76149205435900003</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>0.74395405775699996</v>
       </c>
-      <c r="T4" s="1">
-        <f>SUMIF(B4:S4, "&gt;0")</f>
+      <c r="U4" s="1">
+        <f>SUMIF(C4:T4, "&gt;0")</f>
         <v>8.1794276742399994</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1">
         <v>0.63321986096500005</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.38761458138100002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.818866896284</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1.1835856790599999E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>-0.36149301145599999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>-0.65555993731899997</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>-1.42901166464</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.57681518542300003</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>-3.1363081885300002</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.19299306757099999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>-4.6333311125599996</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0.100303449037</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.40212317353400001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>-1.4314979428000001</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>0.85381129517200005</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0.76865418790600004</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>0.74182352627299997</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>0.69147056112500005</v>
       </c>
-      <c r="T5" s="1">
-        <f>SUMIF(B5:S5, "&gt;0")</f>
+      <c r="U5" s="1">
+        <f>SUMIF(C5:T5, "&gt;0")</f>
         <v>6.1795316414615993</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="1">
         <v>0.64570841945799995</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.45326540508099999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.80563893429300004</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.14341730138100001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>-0.300520234291</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>-0.54637046310600001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>-1.1942337950299999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.58311280523300002</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>-3.2953779163800001</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>0.275811147368</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>-4.1645457957099996</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>0.25589266912000003</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.47338582455799999</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>-1.22406742951</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.859482737251</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.77747340783300001</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>0.75271637909800004</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.71419449339899999</v>
       </c>
-      <c r="T6" s="1">
-        <f t="shared" ref="T6:T9" si="0">SUMIF(B6:S6, "&gt;0")</f>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U14" si="0">SUMIF(C6:T6, "&gt;0")</f>
         <v>6.7400995240729999</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="1">
         <v>0.70307350487999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.47767146735799998</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>0.79652134160599997</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.28760893614900002</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>-1.7394957749900001E-3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>-0.14895847139099999</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>-0.70059850108699995</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.49238263290899997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>-1.1833961830199999</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>0.39532100536800002</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>-1.7325597659900001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>0.401122139218</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.57388930478300004</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>-0.87794520387599995</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0.83677405989200004</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.75864195764200004</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>0.78179912416599995</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>0.65056758009100002</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="0"/>
         <v>7.1553730540619993</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6"/>
+      <c r="C8" s="1">
         <v>0.663392806861</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.35351954982700001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>0.79220596633999996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0.14145558004299999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-0.47275679913099999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>-0.83648233854499998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>-1.3299039930900001</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.47835243500000002</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>-3.5424378839999999</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>0.187020245163</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>-5.0036319862900003</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0.216572363514</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.50714188517699998</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>-1.3777645604099999</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.83176155432300003</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0.73041204816899996</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>0.71818978459600002</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>0.66117475063999998</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="0"/>
         <v>6.2811989696530004</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6"/>
+      <c r="C9" s="1">
         <v>0.69596426430199998</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.46561623958800002</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.79751053584499998</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0.29252421059400002</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>4.4440719571700003E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>-0.145779710374</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>-0.60116822182499996</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.49182330146300002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>-1.0697332848600001</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>0.38087005745500002</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>-1.60112939965</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>0.39908533903900001</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.57807896448100005</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>-0.79224322653299994</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>0.83338272967399996</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0.75469673197300002</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>0.77934805676899999</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>0.64572765089499995</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <f t="shared" si="0"/>
         <v>7.1590688016497008</v>
       </c>
     </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <v>0.66144143886700002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.53871428888700001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.81382267150700005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.51067866479199997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.31186174712100001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.33123993347300001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1.00020012348</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.53898767815799997</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1.1040667120800001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.369933083675</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1.4660123869699999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.36716715737700001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.57668962622999997</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-0.76188850480000003</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.85697484025799997</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.78384790163700002</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.74154119451900002</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.72776170518200001</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1306619316830009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.78834636999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.21254802</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.83850599999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1.9799959999999998E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.26285952000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-0.22729916</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.26877824</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.58547545999999995</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-0.56441319000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.33354872000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.77600577999999998</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.29627202000000002</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.61204079</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-5.3823120000000002E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.88235688000000001</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.87604148999999998</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.81688565000000002</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.56524627999999999</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8072676799999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.70698623999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.53920100999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.84845744999999995</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.36504175999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-8.3858119999999994E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-7.669956E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.44573916000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.65897927999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1.2874014199999999</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.31680131</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-0.86979490000000004</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.42364787999999998</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.68204005000000001</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-2.7761810000000001E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.85161955</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.85179154999999995</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.78493013</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.85641935999999996</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8859155699999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.76887373999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.6013425</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.77127254000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.59548266999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.29341338</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.36866504</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1.0596155899999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.47284192000000003</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.23883941</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.45063078000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-0.14761863</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-0.88675894</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.74551632999999995</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-2.6606520000000002E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.77153055999999998</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.83119814999999997</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.76429751000000001</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.79149917999999997</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4654037100000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.88425664063099996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.64728349786600003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.91297840457400004</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.4872593046</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.47308774137999998</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.314137946133</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.43559527879299997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.85888357240799995</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.38774666989700002</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.71243146564399995</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.183480108107</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.70193482018499997</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.80682661890899998</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.59761453813499998</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.94566363552199995</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.89290341717400001</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.91690329227800005</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.87985309820500002</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="0"/>
+        <v>12.038840050441001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.84124039428300001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.63890760548500003</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.85285859629299998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.55257052355699998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.514774691003</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.42102582465799998</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.389766458767</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.80077150029499999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.36923060558499998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.61083483651600001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.173928325547</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.66253306001199996</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.76219197551600004</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.50362197820300003</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.88828180538500001</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.84064644031299995</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.87633679865699998</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.82748621964400004</v>
+      </c>
+      <c r="U15" s="1">
+        <v>11.527007639700001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="U2:XFD5 M2:N5 K2:K5 P2:S5 I2:I5 A2:G5">
+  <conditionalFormatting sqref="V2:XFD5 N2:O5 L2:L5 Q2:T5 J2:J5 A2:H5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:XFD5 N1:O5 L1:L5 Q1:T5 J1:J5 A1:H5 A65:H1048576 J65:J1048576 Q65:T1048576 L65:L1048576 N65:O1048576 V65:XFD1048576">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1521,7 +2034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:XFD5 M1:N5 K1:K5 P1:S5 I1:I5 A1:G5 A65:G1048576 I65:I1048576 P65:S1048576 K65:K1048576 M65:N1048576 U65:XFD1048576">
+  <conditionalFormatting sqref="C2:H11 C16:H17 D12:H15 J2:J17 L2:L17 N2:O17 Q2:T17">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1533,7 +2046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G17 I2:I17 K2:K17 M2:N17 P2:S17">
+  <conditionalFormatting sqref="V1:XFD1048576 L1:L1048576 J1:J1048576 Q1:T1048576 C1:H11 C16:H1048576 N1:O1048576 D12:H15 A1:B1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1545,7 +2058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:XFD1048576 M1:N1048576 K1:K1048576 I1:I1048576 P1:S1048576 A1:G1048576">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1557,7 +2070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A6:B6">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1569,7 +2082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1581,7 +2094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A7:B7">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1593,7 +2106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1605,7 +2118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1617,7 +2130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1629,7 +2142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="A8:B8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1641,7 +2154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="C2:T24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1659,7 +2172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -8469,5 +8982,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>